--- a/src/main/resources/SpecForGenerator.xlsx
+++ b/src/main/resources/SpecForGenerator.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\borauzun\Documents\GitHub\spike-ms-v1\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53ED1195-DF18-4917-8E8F-81B458F02198}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="0" windowWidth="27520" windowHeight="16820" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="520" yWindow="0" windowWidth="27520" windowHeight="16820" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample-1" sheetId="3" r:id="rId1"/>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="28">
   <si>
     <t>Data item (How does this will write on page)</t>
   </si>
@@ -141,11 +147,17 @@
   <si>
     <t>Validator needs to make a call to Compulsary for validation</t>
   </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>MultiChoice</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -220,6 +232,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -544,14 +564,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -560,7 +580,7 @@
     <col min="6" max="6" width="63.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,7 +600,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -591,7 +611,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -602,7 +622,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -613,7 +633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -624,7 +644,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -635,7 +655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -646,7 +666,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -657,7 +677,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -679,14 +699,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -695,7 +715,7 @@
     <col min="6" max="6" width="63.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -715,7 +735,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -726,18 +746,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -748,7 +768,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -759,18 +779,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -781,7 +801,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -792,7 +812,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -803,7 +823,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -814,24 +834,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="6:6">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F17" s="2" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -841,14 +861,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -860,12 +880,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
